--- a/charts.xlsx
+++ b/charts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>N = 1000</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>addAll()</t>
+  </si>
+  <si>
+    <t>linked</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -290,19 +299,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.0</c:v>
+                  <c:v>975.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.0</c:v>
+                  <c:v>3619.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.0</c:v>
+                  <c:v>5803.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160.0</c:v>
+                  <c:v>10081.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,11 +326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="924942960"/>
-        <c:axId val="880270992"/>
+        <c:axId val="1434739824"/>
+        <c:axId val="1434742144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="924942960"/>
+        <c:axId val="1434739824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,12 +372,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="880270992"/>
+        <c:crossAx val="1434742144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="880270992"/>
+        <c:axId val="1434742144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924942960"/>
+        <c:crossAx val="1434739824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -488,6 +497,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -688,19 +701,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>613.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>2828.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.0</c:v>
+                  <c:v>4787.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130.0</c:v>
+                  <c:v>9149.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,11 +728,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="879591776"/>
-        <c:axId val="922811344"/>
+        <c:axId val="1434756128"/>
+        <c:axId val="1434758448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="879591776"/>
+        <c:axId val="1434756128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,12 +774,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="922811344"/>
+        <c:crossAx val="1434758448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="922811344"/>
+        <c:axId val="1434758448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="879591776"/>
+        <c:crossAx val="1434756128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -887,6 +900,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1082,24 +1099,15 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$M$8</c:f>
+              <c:f>Sheet1!$M$4:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,11 +1122,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="923131248"/>
-        <c:axId val="923636160"/>
+        <c:axId val="1357771216"/>
+        <c:axId val="1357773280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="923131248"/>
+        <c:axId val="1357771216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,12 +1168,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="923636160"/>
+        <c:crossAx val="1357773280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="923636160"/>
+        <c:axId val="1357773280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="923131248"/>
+        <c:crossAx val="1357771216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1285,6 +1293,1293 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IntArrayBag</a:t>
+            </a:r>
+            <a:endParaRPr lang="mr-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>add()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$5:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>424.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1436980912"/>
+        <c:axId val="1437436976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1436980912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1437436976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1437436976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1436980912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IntArrayBag</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>remove()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$5:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>323.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>537.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1470718992"/>
+        <c:axId val="1470720624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1470718992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1470720624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1470720624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIme (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1470718992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IntArrayBag</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>addAll()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$5:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1471690832"/>
+        <c:axId val="1471846528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1471690832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1471846528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1471846528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1471690832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1472,6 +2767,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2962,6 +4377,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3015,16 +5978,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3072,6 +6035,100 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3343,15 +6400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M22"/>
+  <dimension ref="A2:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3367,8 +6429,11 @@
       <c r="M3" t="s">
         <v>23</v>
       </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3376,16 +6441,28 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3393,16 +6470,28 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>17</v>
+        <v>975</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>613</v>
       </c>
       <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
       </c>
+      <c r="R5">
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <v>26</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3410,16 +6499,28 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>36</v>
+        <v>3619</v>
       </c>
       <c r="L6">
-        <v>30</v>
-      </c>
-      <c r="M6">
+        <v>2828</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>71</v>
+      </c>
+      <c r="S6">
+        <v>70</v>
+      </c>
+      <c r="T6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3427,16 +6528,28 @@
         <v>4</v>
       </c>
       <c r="K7">
-        <v>82</v>
+        <v>5803</v>
       </c>
       <c r="L7">
-        <v>63</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
+        <v>4787</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>165</v>
+      </c>
+      <c r="S7">
+        <v>170</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3444,51 +6557,75 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>160</v>
+        <v>10081</v>
       </c>
       <c r="L8">
-        <v>130</v>
-      </c>
-      <c r="M8">
+        <v>9149</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>285</v>
+      </c>
+      <c r="S8">
+        <v>323</v>
+      </c>
+      <c r="T8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>424</v>
+      </c>
+      <c r="S9">
+        <v>537</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -336,6 +336,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -344,8 +358,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -458,8 +472,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -738,6 +758,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -746,8 +780,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -861,8 +895,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1132,6 +1172,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1140,8 +1194,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1254,8 +1308,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2888,7 +2948,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2915,8 +2975,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3017,7 +3077,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3049,10 +3109,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3092,22 +3152,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3212,8 +3273,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3345,19 +3406,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3371,6 +3433,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3391,7 +3464,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3418,8 +3491,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3520,7 +3593,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3552,10 +3625,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3595,22 +3668,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3715,8 +3789,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3848,19 +3922,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3874,6 +3949,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3894,7 +3980,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3921,8 +4007,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4023,7 +4109,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4055,10 +4141,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4098,22 +4184,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4218,8 +4305,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4351,19 +4438,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4377,6 +4465,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6402,8 +6501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
